--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>版本号</t>
   </si>
@@ -145,11 +145,6 @@
   </si>
   <si>
     <t>1.设置隐藏动态功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.增加删除评论功能(先删除tb_approve中所有commentID = x的项，然后int i = tb_comment
-中该commentID的approvenum，找出userID，删除该项，tb_user中userApprove-i）
- </t>
   </si>
   <si>
     <t>否</t>
@@ -170,9 +165,6 @@
     <t>1.增加私信功能（数据库加tb_letter"私信ID，私信内容，已读未读，接收用户ID，发送用户ID"）</t>
   </si>
   <si>
-    <t>预计2017/1/8</t>
-  </si>
-  <si>
     <t>预计2017/1/9</t>
   </si>
   <si>
@@ -180,6 +172,9 @@
   </si>
   <si>
     <t>预计2017/1/11</t>
+  </si>
+  <si>
+    <t>1.增加删除评论功能</t>
   </si>
 </sst>
 </file>
@@ -187,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -250,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,7 +254,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -277,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -292,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -589,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,18 +1129,18 @@
         <v>42742</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+    <row r="39" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>2.4</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>48</v>
+      <c r="B39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11">
+        <v>42743</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1153,13 +1148,13 @@
         <v>2.5</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1167,13 +1162,13 @@
         <v>2.6</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1181,13 +1176,13 @@
         <v>2.7</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1195,10 +1190,10 @@
         <v>2.8</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="22">
         <v>42747</v>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>版本号</t>
   </si>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1..增加关注功能（数据库加tb_follow"关注ID，关注人ID，被关注人ID"，tb_user加userFollowing，
-userFollower）</t>
   </si>
   <si>
     <t>1.增加消息功能（数据库加tb_messsage"消息ID，消息标题，消息内容，消息类别，已读未读，接收消息用户ID"，消息类别可以为关注，私信，加好友，被点赞等）</t>
@@ -165,9 +161,6 @@
     <t>1.增加私信功能（数据库加tb_letter"私信ID，私信内容，已读未读，接收用户ID，发送用户ID"）</t>
   </si>
   <si>
-    <t>预计2017/1/9</t>
-  </si>
-  <si>
     <t>预计2017/1/10</t>
   </si>
   <si>
@@ -175,6 +168,9 @@
   </si>
   <si>
     <t>1.增加删除评论功能</t>
+  </si>
+  <si>
+    <t>1..增加关注功能</t>
   </si>
 </sst>
 </file>
@@ -585,7 +581,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1130,7 @@
         <v>2.4</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>4</v>
@@ -1143,18 +1139,18 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
+    <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>2.5</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>47</v>
+      <c r="B40" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="16">
+        <v>42744</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1162,13 +1158,13 @@
         <v>2.6</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1176,13 +1172,13 @@
         <v>2.7</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1190,7 +1186,7 @@
         <v>2.8</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>42</v>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>版本号</t>
   </si>
@@ -147,30 +147,13 @@
     <t>1.设置隐藏动态功能</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>1.增加消息功能（数据库加tb_messsage"消息ID，消息标题，消息内容，消息类别，已读未读，接收消息用户ID"，消息类别可以为关注，私信，加好友，被点赞等）</t>
-  </si>
-  <si>
-    <t>1.增加好友功能（数据库加tb_friend"添加ID，发起人ID，接收人ID，状态"，tb_user加userFreiend
-当发起人发起加好友时，设置状态为0，添加到消息中发送给接收人，若同意则设置状态为1，忽略则
-删除该请求和消息）</t>
-  </si>
-  <si>
-    <t>1.增加私信功能（数据库加tb_letter"私信ID，私信内容，已读未读，接收用户ID，发送用户ID"）</t>
-  </si>
-  <si>
-    <t>预计2017/1/10</t>
-  </si>
-  <si>
-    <t>预计2017/1/11</t>
-  </si>
-  <si>
     <t>1.增加删除评论功能</t>
   </si>
   <si>
     <t>1..增加关注功能</t>
+  </si>
+  <si>
+    <t>1.增加私信功能</t>
   </si>
 </sst>
 </file>
@@ -189,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +191,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,11 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,53 +224,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,621 +540,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="23.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16">
         <v>42707</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16">
         <v>42707</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18">
         <v>42708</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>1.2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1.2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1.2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1.3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>1.3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>1.3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>1.3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>1.4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>1.4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>1.4</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>1.4</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>1.4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>1.5</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>1.5</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>1.5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>1.5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>1.5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>1.6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>1.6</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>1.6</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>1.7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="18">
         <v>42732</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>1.7</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18">
         <v>42732</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>1.8</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16">
         <v>42734</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>1.9</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18">
         <v>42735</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>2</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16">
         <v>42739</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>2</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="16">
         <v>42739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>2.1</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>2.1</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+    <row r="33" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>2.1</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    <row r="34" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>2.1</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>2.1</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+    <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>2.1</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11">
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16">
         <v>42741</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+    <row r="38" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="C38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="18">
         <v>42742</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>2.4</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="16">
         <v>42743</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>2.5</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="B40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="18">
         <v>42744</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>2.6</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="B43" s="20" t="s">
+      <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="22">
-        <v>42747</v>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="16">
+        <v>42745</v>
       </c>
     </row>
   </sheetData>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>版本号</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>1.增加私信功能</t>
+  </si>
+  <si>
+    <t>1.单独显示所有我读过的书，看过的电影</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1134,20 @@
         <v>42745</v>
       </c>
     </row>
+    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="18">
+        <v>42746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>版本号</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>1.单独显示所有我读过的书，看过的电影</t>
+  </si>
+  <si>
+    <t>1.完成小组功能的数据库，group的bean，dao，daoimpl</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1151,20 @@
         <v>42746</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6">
+        <v>42747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>版本号</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>1.完成小组功能的数据库，group的bean，dao，daoimpl</t>
+  </si>
+  <si>
+    <t>1.补充完剩下的小组功能的数据库，bean，dao，daoimpl</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,6 +1168,20 @@
         <v>42747</v>
       </c>
     </row>
+    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>2.9</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="18">
+        <v>42749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>版本号</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>1.补充完剩下的小组功能的数据库，bean，dao，daoimpl</t>
+  </si>
+  <si>
+    <t>1.完成加入小组功能</t>
+  </si>
+  <si>
+    <t>2.完成首先显示小组分类，最受欢迎小组功能</t>
+  </si>
+  <si>
+    <t>3.完成小组功能相关页面显示</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B45" sqref="B45:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1191,48 @@
         <v>42749</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="6">
+        <v>42750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>版本号</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>3.完成小组功能相关页面显示</t>
+  </si>
+  <si>
+    <t>4.完成小组帖子功能相关页面</t>
+  </si>
+  <si>
+    <t>3.完成搜索小组功能</t>
+  </si>
+  <si>
+    <t>2.完成帖子点赞功能</t>
+  </si>
+  <si>
+    <t>1.完成小组内发帖功能</t>
   </si>
 </sst>
 </file>
@@ -236,16 +248,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -257,9 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -277,6 +280,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,608 +570,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="16" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13">
         <v>42707</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13">
         <v>42707</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
         <v>42708</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>1.2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
         <v>42714</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>1.2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
         <v>42714</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1.2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
         <v>42714</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>1.3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
         <v>42723</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>1.3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
         <v>42723</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>1.3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
         <v>42723</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>1.3</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
         <v>42723</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>1.4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13">
         <v>42724</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>1.4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
         <v>42724</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>1.4</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="13">
         <v>42724</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>1.4</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13">
         <v>42724</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>1.4</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13">
         <v>42724</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>1.5</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15">
         <v>42728</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>1.5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15">
         <v>42728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>1.5</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15">
         <v>42728</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>1.5</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15">
         <v>42728</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>1.5</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="15">
         <v>42728</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>1.6</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="13">
         <v>42731</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>1.6</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13">
         <v>42731</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>1.6</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13">
         <v>42731</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>1.7</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15">
         <v>42732</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>1.7</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15">
         <v>42732</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>1.8</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13">
         <v>42734</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>1.9</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
         <v>42735</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="13">
         <v>42739</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>2</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="13">
         <v>42739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>2.1</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="C31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>2.1</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="18">
+      <c r="C32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>2.1</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>2.1</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>2.1</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>2.1</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="18">
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15">
         <v>42740</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="13">
         <v>42741</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="18">
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="15">
         <v>42742</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+    <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>2.4</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="16">
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13">
         <v>42743</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>2.5</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="18">
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="15">
         <v>42744</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
+    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>2.6</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="13">
         <v>42745</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>2.7</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="18">
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="15">
         <v>42746</v>
       </c>
     </row>
@@ -1167,27 +1179,27 @@
       <c r="A43" s="4">
         <v>2.8</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>42747</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>2.9</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="18">
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="15">
         <v>42749</v>
       </c>
     </row>
@@ -1195,13 +1207,13 @@
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>42750</v>
       </c>
     </row>
@@ -1209,13 +1221,13 @@
       <c r="A46" s="4">
         <v>3</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>42750</v>
       </c>
     </row>
@@ -1223,14 +1235,70 @@
       <c r="A47" s="4">
         <v>3</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>42750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="15">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="15">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>3.13</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="15">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>3.14</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="15">
+        <v>42754</v>
       </c>
     </row>
   </sheetData>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>版本号</t>
   </si>
@@ -174,16 +174,22 @@
     <t>3.完成小组功能相关页面显示</t>
   </si>
   <si>
+    <t>1.完成小组内发帖功能</t>
+  </si>
+  <si>
+    <t>2.完成帖子点赞功能</t>
+  </si>
+  <si>
+    <t>3.完成搜索小组功能</t>
+  </si>
+  <si>
     <t>4.完成小组帖子功能相关页面</t>
   </si>
   <si>
-    <t>3.完成搜索小组功能</t>
-  </si>
-  <si>
-    <t>2.完成帖子点赞功能</t>
-  </si>
-  <si>
-    <t>1.完成小组内发帖功能</t>
+    <t>1.完成帖子评论功能</t>
+  </si>
+  <si>
+    <t>2.完成评论点赞功能</t>
   </si>
 </sst>
 </file>
@@ -248,10 +254,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -263,6 +275,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -280,15 +295,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,608 +576,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="6" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16">
         <v>42707</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16">
         <v>42707</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18">
         <v>42708</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>1.2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>1.2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>1.2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16">
         <v>42714</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1.3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="C8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>1.3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>1.3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>1.3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18">
         <v>42723</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>1.4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>1.4</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>1.4</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>1.4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>1.4</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="16">
         <v>42724</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+    <row r="17" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>1.5</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>1.5</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="C18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>1.5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+    <row r="20" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>1.5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>1.5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="C21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="18">
         <v>42728</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>1.6</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>1.6</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>1.6</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16">
         <v>42731</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    <row r="25" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>1.7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="C25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="18">
         <v>42732</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="26" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>1.7</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18">
         <v>42732</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>1.8</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="16">
         <v>42734</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    <row r="28" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>1.9</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="C28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="18">
         <v>42735</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>2</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="16">
         <v>42739</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>2</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="16">
         <v>42739</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>2.1</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="C31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>2.1</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+    <row r="33" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>2.1</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="15">
+      <c r="C33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+    <row r="34" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>2.1</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="15">
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+    <row r="35" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>2.1</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+    <row r="36" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>2.1</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="15">
+      <c r="C36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="18">
         <v>42740</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+    <row r="37" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="16">
         <v>42741</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+    <row r="38" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15">
+      <c r="C38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="18">
         <v>42742</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+    <row r="39" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>2.4</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="16">
         <v>42743</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
         <v>2.5</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="15">
+      <c r="C40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="18">
         <v>42744</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+    <row r="41" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>2.6</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="16">
         <v>42745</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
         <v>2.7</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="C42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="18">
         <v>42746</v>
       </c>
     </row>
@@ -1179,27 +1185,27 @@
       <c r="A43" s="4">
         <v>2.8</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>42747</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+    <row r="44" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>2.9</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="15">
+      <c r="C44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="18">
         <v>42749</v>
       </c>
     </row>
@@ -1207,13 +1213,13 @@
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>42750</v>
       </c>
     </row>
@@ -1221,13 +1227,13 @@
       <c r="A46" s="4">
         <v>3</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>42750</v>
       </c>
     </row>
@@ -1235,70 +1241,98 @@
       <c r="A47" s="4">
         <v>3</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>42750</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+    <row r="48" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
         <v>3.1</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="18">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="18">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="18">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>3.1</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="C51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="18">
         <v>42754</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="15">
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>3.13</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="15">
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>3.14</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="15">
-        <v>42754</v>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="6">
+        <v>42755</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="6">
+        <v>42755</v>
       </c>
     </row>
   </sheetData>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>版本号</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1.增加删除评论功能</t>
   </si>
   <si>
-    <t>1..增加关注功能</t>
-  </si>
-  <si>
     <t>1.增加私信功能</t>
   </si>
   <si>
@@ -165,31 +162,37 @@
     <t>1.补充完剩下的小组功能的数据库，bean，dao，daoimpl</t>
   </si>
   <si>
-    <t>1.完成加入小组功能</t>
-  </si>
-  <si>
-    <t>2.完成首先显示小组分类，最受欢迎小组功能</t>
-  </si>
-  <si>
     <t>3.完成小组功能相关页面显示</t>
   </si>
   <si>
-    <t>1.完成小组内发帖功能</t>
-  </si>
-  <si>
-    <t>2.完成帖子点赞功能</t>
-  </si>
-  <si>
-    <t>3.完成搜索小组功能</t>
-  </si>
-  <si>
     <t>4.完成小组帖子功能相关页面</t>
   </si>
   <si>
-    <t>1.完成帖子评论功能</t>
-  </si>
-  <si>
-    <t>2.完成评论点赞功能</t>
+    <t>2.增加评论点赞功能</t>
+  </si>
+  <si>
+    <t>1.增加帖子评论功能</t>
+  </si>
+  <si>
+    <t>3.增加搜索小组功能</t>
+  </si>
+  <si>
+    <t>2.增加帖子点赞功能</t>
+  </si>
+  <si>
+    <t>1.增加小组内发帖功能</t>
+  </si>
+  <si>
+    <t>2.增加首先显示小组分类，最受欢迎小组功能</t>
+  </si>
+  <si>
+    <t>1.增加加入小组功能</t>
+  </si>
+  <si>
+    <t>1.增加关注功能</t>
+  </si>
+  <si>
+    <t>1.增加退出小组功能</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1147,7 @@
         <v>2.5</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>4</v>
@@ -1158,7 +1161,7 @@
         <v>2.6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>4</v>
@@ -1172,7 +1175,7 @@
         <v>2.7</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>4</v>
@@ -1186,7 +1189,7 @@
         <v>2.8</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -1200,7 +1203,7 @@
         <v>2.9</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>4</v>
@@ -1214,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -1228,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -1242,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1259,7 @@
         <v>3.1</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>4</v>
@@ -1284,7 +1287,7 @@
         <v>3.1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>4</v>
@@ -1298,7 +1301,7 @@
         <v>3.1</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>4</v>
@@ -1312,7 +1315,7 @@
         <v>3.2</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -1326,13 +1329,27 @@
         <v>3.2</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="6">
         <v>42755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="18">
+        <v>42756</v>
       </c>
     </row>
   </sheetData>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>版本号</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>1.增加退出小组功能</t>
+  </si>
+  <si>
+    <t>2.增加删除评论功能</t>
+  </si>
+  <si>
+    <t>3.增加删除帖子功能</t>
   </si>
 </sst>
 </file>
@@ -579,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,6 +1358,34 @@
         <v>42756</v>
       </c>
     </row>
+    <row r="55" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="18">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="18">
+        <v>42756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>版本号</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>3.增加删除帖子功能</t>
+  </si>
+  <si>
+    <t>1.修改了图书电影页面，点击已读已看页面数据不更新的bug</t>
+  </si>
+  <si>
+    <t>2.修改了回复私信页面显示错误的bug</t>
+  </si>
+  <si>
+    <t>3.修改了查看其他用户信息，已读图书显示的bug</t>
+  </si>
+  <si>
+    <t>4.用户点击自己名称链接现在会跳转到显示自己页面</t>
   </si>
 </sst>
 </file>
@@ -585,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1398,62 @@
         <v>42756</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="6">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6">
+        <v>42757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>版本号</t>
   </si>
@@ -199,18 +199,6 @@
   </si>
   <si>
     <t>3.增加删除帖子功能</t>
-  </si>
-  <si>
-    <t>1.修改了图书电影页面，点击已读已看页面数据不更新的bug</t>
-  </si>
-  <si>
-    <t>2.修改了回复私信页面显示错误的bug</t>
-  </si>
-  <si>
-    <t>3.修改了查看其他用户信息，已读图书显示的bug</t>
-  </si>
-  <si>
-    <t>4.用户点击自己名称链接现在会跳转到显示自己页面</t>
   </si>
 </sst>
 </file>
@@ -597,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,62 +1386,6 @@
         <v>42756</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="6">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="6">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="6">
-        <v>42757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="6">
-        <v>42757</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/开发计划与实现.xlsx
+++ b/开发计划与实现.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>版本号</t>
   </si>
@@ -201,16 +201,19 @@
     <t>3.增加删除帖子功能</t>
   </si>
   <si>
-    <t>1.修改了图书电影页面，点击已读已看页面数据不更新的bug</t>
-  </si>
-  <si>
-    <t>2.修改了回复私信页面显示错误的bug</t>
-  </si>
-  <si>
-    <t>3.修改了查看其他用户信息，已读图书显示的bug</t>
-  </si>
-  <si>
     <t>4.用户点击自己名称链接现在会跳转到显示自己页面</t>
+  </si>
+  <si>
+    <t>1.修复了图书电影页面，点击已读已看页面数据不更新的bug</t>
+  </si>
+  <si>
+    <t>2.修复了回复私信页面显示错误的bug</t>
+  </si>
+  <si>
+    <t>3.修复了查看其他用户信息，已读图书显示的bug</t>
+  </si>
+  <si>
+    <t>1.修复了个人信息页面关注人与粉丝链接错误问题</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1406,7 @@
         <v>3.4</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>4</v>
@@ -1417,7 +1420,7 @@
         <v>3.4</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>4</v>
@@ -1431,7 +1434,7 @@
         <v>3.4</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>4</v>
@@ -1445,13 +1448,27 @@
         <v>3.4</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="6">
         <v>42757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="18">
+        <v>42759</v>
       </c>
     </row>
   </sheetData>
